--- a/biology/Zoologie/Ichthyosaurus/Ichthyosaurus.xlsx
+++ b/biology/Zoologie/Ichthyosaurus/Ichthyosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichthyosaurus (du grec ιχθυς/ichthys signifiant "poisson" et σαυρος/sauros qui signifie "lézard") est un genre éteint d'ichthyosaures (Ichthyosauria) de la famille des ichthyosauridés (Ichthyosauridae) ayant vécu au début du Jurassique (Hettangien - Pliensbachien)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichthyosaurus (du grec ιχθυς/ichthys signifiant "poisson" et σαυρος/sauros qui signifie "lézard") est un genre éteint d'ichthyosaures (Ichthyosauria) de la famille des ichthyosauridés (Ichthyosauridae) ayant vécu au début du Jurassique (Hettangien - Pliensbachien).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces reptiles carnivores ressemblant à des dauphins actuels étaient à ce point adaptés à la vie aquatique qu'ils donnaient naissance à leurs petits directement dans l'eau (des fossiles retrouvés en Allemagne le prouvent).
 Comme cela est le cas pour les autres genres du groupe des Ichthyosauria, les espèces du genre Ichthyosaurus sont considérées de nos jours comme étant endothermes. De nombreuses espèces ont été décrites.
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique des ichthyosaures réalisée par Patrick Druckenmiller (en) et Erin E. Maxwell en 2010 conduit au cladogramme suivant, ici limité aux Thunnosauria[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique des ichthyosaures réalisée par Patrick Druckenmiller (en) et Erin E. Maxwell en 2010 conduit au cladogramme suivant, ici limité aux Thunnosauria :
 </t>
         </is>
       </c>
